--- a/dev/Comparisons/comparison results.xlsx
+++ b/dev/Comparisons/comparison results.xlsx
@@ -406,7 +406,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,6 +743,21 @@
       <c r="D9">
         <v>1500</v>
       </c>
+      <c r="G9">
+        <v>0.30444879281302201</v>
+      </c>
+      <c r="H9">
+        <v>113.901000069791</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>2000</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
       <c r="M9">
         <v>0.160674336458036</v>
       </c>
@@ -771,6 +786,36 @@
       </c>
       <c r="D10">
         <v>2000</v>
+      </c>
+      <c r="G10">
+        <v>0.26479604858775202</v>
+      </c>
+      <c r="H10">
+        <v>392.98617309089701</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
+        <v>0.185349082193807</v>
+      </c>
+      <c r="N10">
+        <v>97.266492324997998</v>
+      </c>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
+        <v>10000</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
